--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.0602091569539</v>
+        <v>463.0272549072723</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.596215838976</v>
+        <v>633.5343174849295</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.5336998010314</v>
+        <v>573.0706913951661</v>
       </c>
       <c r="AD2" t="n">
-        <v>368060.2091569538</v>
+        <v>463027.2549072723</v>
       </c>
       <c r="AE2" t="n">
-        <v>503596.215838976</v>
+        <v>633534.3174849295</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410574035680953e-06</v>
+        <v>2.033574390862103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.54947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>455533.6998010314</v>
+        <v>573070.6913951661</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.7580307207994</v>
+        <v>347.8250625932184</v>
       </c>
       <c r="AB3" t="n">
-        <v>381.4090355685694</v>
+        <v>475.9095955988112</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.0078925248478</v>
+        <v>430.4894517381724</v>
       </c>
       <c r="AD3" t="n">
-        <v>278758.0307207993</v>
+        <v>347825.0625932184</v>
       </c>
       <c r="AE3" t="n">
-        <v>381409.0355685694</v>
+        <v>475909.5955988112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.777642596792924e-06</v>
+        <v>2.562764072995699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>345007.8925248478</v>
+        <v>430489.4517381724</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.7156656397158</v>
+        <v>324.245294089927</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.5672580550918</v>
+        <v>443.64671606664</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.3503127250368</v>
+        <v>401.3056961473158</v>
       </c>
       <c r="AD4" t="n">
-        <v>246715.6656397159</v>
+        <v>324245.294089927</v>
       </c>
       <c r="AE4" t="n">
-        <v>337567.2580550918</v>
+        <v>443646.71606664</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917178134013283e-06</v>
+        <v>2.763927491525181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>305350.3127250368</v>
+        <v>401305.6961473158</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.5900003766707</v>
+        <v>308.4863505399495</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.8176084800336</v>
+        <v>422.0846342660384</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.5311560216998</v>
+        <v>381.8014691711918</v>
       </c>
       <c r="AD5" t="n">
-        <v>239590.0003766707</v>
+        <v>308486.3505399495</v>
       </c>
       <c r="AE5" t="n">
-        <v>327817.6084800336</v>
+        <v>422084.6342660384</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.986222315863036e-06</v>
+        <v>2.863466031506814e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>296531.1560216998</v>
+        <v>381801.4691711918</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>225.7810894160003</v>
+        <v>294.7626909252994</v>
       </c>
       <c r="AB6" t="n">
-        <v>308.9236472974978</v>
+        <v>403.3073177361422</v>
       </c>
       <c r="AC6" t="n">
-        <v>279.4404079765781</v>
+        <v>364.8162333767796</v>
       </c>
       <c r="AD6" t="n">
-        <v>225781.0894160003</v>
+        <v>294762.6909252994</v>
       </c>
       <c r="AE6" t="n">
-        <v>308923.6472974978</v>
+        <v>403307.3177361422</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.035589606130861e-06</v>
+        <v>2.934637097112344e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.93489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>279440.4079765781</v>
+        <v>364816.2333767796</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>221.8302442340557</v>
+        <v>290.8118457433548</v>
       </c>
       <c r="AB7" t="n">
-        <v>303.517926620576</v>
+        <v>397.9015970592175</v>
       </c>
       <c r="AC7" t="n">
-        <v>274.5506016940834</v>
+        <v>359.926427094284</v>
       </c>
       <c r="AD7" t="n">
-        <v>221830.2442340557</v>
+        <v>290811.8457433548</v>
       </c>
       <c r="AE7" t="n">
-        <v>303517.9266205759</v>
+        <v>397901.5970592175</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.067800887724052e-06</v>
+        <v>2.981074955521625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.70052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>274550.6016940834</v>
+        <v>359926.427094284</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.6235257491122</v>
+        <v>287.6051272584112</v>
       </c>
       <c r="AB8" t="n">
-        <v>299.1303529190434</v>
+        <v>393.5140233576827</v>
       </c>
       <c r="AC8" t="n">
-        <v>270.5817718686253</v>
+        <v>355.9575972688253</v>
       </c>
       <c r="AD8" t="n">
-        <v>218623.5257491122</v>
+        <v>287605.1272584112</v>
       </c>
       <c r="AE8" t="n">
-        <v>299130.3529190434</v>
+        <v>393514.0233576827</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.089718564112462e-06</v>
+        <v>3.012672889613158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>270581.7718686253</v>
+        <v>355957.5972688253</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>216.1130557677709</v>
+        <v>276.4613789901374</v>
       </c>
       <c r="AB9" t="n">
-        <v>295.695417136455</v>
+        <v>378.2666553495542</v>
       </c>
       <c r="AC9" t="n">
-        <v>267.4746615361634</v>
+        <v>342.1654166635772</v>
       </c>
       <c r="AD9" t="n">
-        <v>216113.0557677709</v>
+        <v>276461.3789901374</v>
       </c>
       <c r="AE9" t="n">
-        <v>295695.417136455</v>
+        <v>378266.6553495543</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.10236966166573e-06</v>
+        <v>3.030911526756514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>267474.6615361634</v>
+        <v>342165.4166635772</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>213.4342581870288</v>
+        <v>273.7825814093953</v>
       </c>
       <c r="AB10" t="n">
-        <v>292.030168106277</v>
+        <v>374.6014063193743</v>
       </c>
       <c r="AC10" t="n">
-        <v>264.1592187292151</v>
+        <v>338.8499738566283</v>
       </c>
       <c r="AD10" t="n">
-        <v>213434.2581870288</v>
+        <v>273782.5814093953</v>
       </c>
       <c r="AE10" t="n">
-        <v>292030.168106277</v>
+        <v>374601.4063193743</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.110329116030425e-06</v>
+        <v>3.042386388870691e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>264159.2187292151</v>
+        <v>338849.9738566283</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.5027489995016</v>
+        <v>271.8510722218681</v>
       </c>
       <c r="AB11" t="n">
-        <v>289.3873920237322</v>
+        <v>371.9586302368282</v>
       </c>
       <c r="AC11" t="n">
-        <v>261.768665486828</v>
+        <v>336.4594206142409</v>
       </c>
       <c r="AD11" t="n">
-        <v>211502.7489995016</v>
+        <v>271851.0722218681</v>
       </c>
       <c r="AE11" t="n">
-        <v>289387.3920237322</v>
+        <v>371958.6302368282</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.121533040062839e-06</v>
+        <v>3.058538687447833e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>261768.665486828</v>
+        <v>336459.4206142409</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>211.2666909833184</v>
+        <v>271.6150142056848</v>
       </c>
       <c r="AB12" t="n">
-        <v>289.0644070318457</v>
+        <v>371.6356452449416</v>
       </c>
       <c r="AC12" t="n">
-        <v>261.4765057292549</v>
+        <v>336.1672608566677</v>
       </c>
       <c r="AD12" t="n">
-        <v>211266.6909833184</v>
+        <v>271615.0142056848</v>
       </c>
       <c r="AE12" t="n">
-        <v>289064.4070318458</v>
+        <v>371635.6452449416</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.120716087268808e-06</v>
+        <v>3.057360915676582e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>261476.5057292549</v>
+        <v>336167.2608566676</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.4074906402649</v>
+        <v>389.4111339897031</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.8720023215777</v>
+        <v>532.8094931314686</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.9908849070443</v>
+        <v>481.9589029098207</v>
       </c>
       <c r="AD2" t="n">
-        <v>305407.4906402649</v>
+        <v>389411.1339897031</v>
       </c>
       <c r="AE2" t="n">
-        <v>417872.0023215777</v>
+        <v>532809.4931314685</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628365084252455e-06</v>
+        <v>2.383865225956244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>377990.8849070444</v>
+        <v>481958.9029098207</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.8210284033112</v>
+        <v>311.075165497318</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.6066876858631</v>
+        <v>425.6267651011653</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.7677336331504</v>
+        <v>385.005544010826</v>
       </c>
       <c r="AD3" t="n">
-        <v>243821.0284033112</v>
+        <v>311075.165497318</v>
       </c>
       <c r="AE3" t="n">
-        <v>333606.6876858631</v>
+        <v>425626.7651011653</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9587128565089e-06</v>
+        <v>2.867481937202406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>301767.7336331505</v>
+        <v>385005.544010826</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.3127484596117</v>
+        <v>283.2348028531867</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.9145984223369</v>
+        <v>387.5343527013493</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.6230999063441</v>
+        <v>350.5486179874119</v>
       </c>
       <c r="AD4" t="n">
-        <v>224312.7484596117</v>
+        <v>283234.8028531867</v>
       </c>
       <c r="AE4" t="n">
-        <v>306914.5984223369</v>
+        <v>387534.3527013493</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.084346908043895e-06</v>
+        <v>3.051405462428177e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>277623.0999063441</v>
+        <v>350548.6179874119</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.7134553868141</v>
+        <v>277.9675029722692</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.3074456816771</v>
+        <v>380.3274006274076</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.791787707944</v>
+        <v>344.0294873043864</v>
       </c>
       <c r="AD5" t="n">
-        <v>210713.4553868141</v>
+        <v>277967.5029722693</v>
       </c>
       <c r="AE5" t="n">
-        <v>288307.445681677</v>
+        <v>380327.4006274076</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.136334244764028e-06</v>
+        <v>3.127512967677281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>260791.787707944</v>
+        <v>344029.4873043864</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>205.7796393322989</v>
+        <v>264.6163528713021</v>
       </c>
       <c r="AB6" t="n">
-        <v>281.5567808912904</v>
+        <v>362.0597680480922</v>
       </c>
       <c r="AC6" t="n">
-        <v>254.6853968905322</v>
+        <v>327.5052919396574</v>
       </c>
       <c r="AD6" t="n">
-        <v>205779.6393322989</v>
+        <v>264616.352871302</v>
       </c>
       <c r="AE6" t="n">
-        <v>281556.7808912904</v>
+        <v>362059.7680480921</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.182188379660233e-06</v>
+        <v>3.194641696180787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.4140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>254685.3968905322</v>
+        <v>327505.2919396574</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>201.6383844801164</v>
+        <v>260.4750980191195</v>
       </c>
       <c r="AB7" t="n">
-        <v>275.8905333032674</v>
+        <v>356.3935204600662</v>
       </c>
       <c r="AC7" t="n">
-        <v>249.5599280196799</v>
+        <v>322.3798230688042</v>
       </c>
       <c r="AD7" t="n">
-        <v>201638.3844801164</v>
+        <v>260475.0980191195</v>
       </c>
       <c r="AE7" t="n">
-        <v>275890.5333032674</v>
+        <v>356393.5204600662</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.21522074223949e-06</v>
+        <v>3.242999832353928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>249559.9280196799</v>
+        <v>322379.8230688042</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.1340312124109</v>
+        <v>256.9707447514107</v>
       </c>
       <c r="AB8" t="n">
-        <v>271.0957225612402</v>
+        <v>351.5987097178659</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.2227272853111</v>
+        <v>318.0426223343862</v>
       </c>
       <c r="AD8" t="n">
-        <v>198134.0312124109</v>
+        <v>256970.7447514108</v>
       </c>
       <c r="AE8" t="n">
-        <v>271095.7225612402</v>
+        <v>351598.7097178659</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.23550377189342e-06</v>
+        <v>3.272693424740945e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>245222.7272853111</v>
+        <v>318042.6223343862</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>198.2036837178141</v>
+        <v>257.0403972568139</v>
       </c>
       <c r="AB9" t="n">
-        <v>271.1910241919843</v>
+        <v>351.6940113486101</v>
       </c>
       <c r="AC9" t="n">
-        <v>245.3089334621737</v>
+        <v>318.1288285112488</v>
       </c>
       <c r="AD9" t="n">
-        <v>198203.6837178141</v>
+        <v>257040.3972568139</v>
       </c>
       <c r="AE9" t="n">
-        <v>271191.0241919843</v>
+        <v>351694.0113486101</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.234393034555228e-06</v>
+        <v>3.271067347062608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>245308.9334621737</v>
+        <v>318128.8285112488</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.7677886365872</v>
+        <v>250.735506309913</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.280416259545</v>
+        <v>343.067381402907</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.6304958306503</v>
+        <v>310.3255120200097</v>
       </c>
       <c r="AD2" t="n">
-        <v>188767.7886365872</v>
+        <v>250735.506309913</v>
       </c>
       <c r="AE2" t="n">
-        <v>258280.416259545</v>
+        <v>343067.381402907</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301524076262312e-06</v>
+        <v>3.560741829803647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>233630.4958306503</v>
+        <v>310325.5120200097</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.3446944098679</v>
+        <v>221.3123225746426</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.0224406832627</v>
+        <v>302.8092833570764</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.214684940932</v>
+        <v>273.9095903490649</v>
       </c>
       <c r="AD3" t="n">
-        <v>159344.6944098679</v>
+        <v>221312.3225746427</v>
       </c>
       <c r="AE3" t="n">
-        <v>218022.4406832627</v>
+        <v>302809.2833570763</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529873934564599e-06</v>
+        <v>3.914027246485953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>197214.684940932</v>
+        <v>273909.5903490649</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.9420078463845</v>
+        <v>213.3130289860627</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.4714671618276</v>
+        <v>291.8642969652603</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.7162955590863</v>
+        <v>264.0091780970955</v>
       </c>
       <c r="AD4" t="n">
-        <v>158942.0078463845</v>
+        <v>213313.0289860627</v>
       </c>
       <c r="AE4" t="n">
-        <v>217471.4671618276</v>
+        <v>291864.2969652603</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.540139574212171e-06</v>
+        <v>3.929909458138573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.81510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>196716.2955590863</v>
+        <v>264009.1780970955</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.2321223244137</v>
+        <v>287.3185950723525</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.4360380702993</v>
+        <v>393.1219773798094</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.285651279132</v>
+        <v>355.6029676088402</v>
       </c>
       <c r="AD2" t="n">
-        <v>223232.1223244137</v>
+        <v>287318.5950723526</v>
       </c>
       <c r="AE2" t="n">
-        <v>305436.0380702993</v>
+        <v>393121.9773798094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037625104197994e-06</v>
+        <v>3.079450529915191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276285.651279132</v>
+        <v>355602.9676088402</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.2192834950474</v>
+        <v>252.3056667344316</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.5299273265516</v>
+        <v>345.2157441663214</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.9516325081037</v>
+        <v>312.2688380565306</v>
       </c>
       <c r="AD3" t="n">
-        <v>188219.2834950474</v>
+        <v>252305.6667344316</v>
       </c>
       <c r="AE3" t="n">
-        <v>257529.9273265516</v>
+        <v>345215.7441663214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305416213717449e-06</v>
+        <v>3.484161618533646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>232951.6325081037</v>
+        <v>312268.8380565306</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.2665873028238</v>
+        <v>237.3315945390146</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.0169416650481</v>
+        <v>324.7275579791203</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.3465528465718</v>
+        <v>293.7360156036796</v>
       </c>
       <c r="AD4" t="n">
-        <v>181266.5873028238</v>
+        <v>237331.5945390146</v>
       </c>
       <c r="AE4" t="n">
-        <v>248016.9416650481</v>
+        <v>324727.5579791203</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390272151010552e-06</v>
+        <v>3.612403884750987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>224346.5528465718</v>
+        <v>293736.0156036796</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.0968936048233</v>
+        <v>234.0979359896359</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.7340739753436</v>
+        <v>320.3031236929157</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.5222605995283</v>
+        <v>289.7338431160164</v>
       </c>
       <c r="AD5" t="n">
-        <v>170096.8936048233</v>
+        <v>234097.9359896359</v>
       </c>
       <c r="AE5" t="n">
-        <v>232734.0739753436</v>
+        <v>320303.1236929157</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421023406536272e-06</v>
+        <v>3.658878071748949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>210522.2605995283</v>
+        <v>289733.8431160164</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.8304495268444</v>
+        <v>214.6568796408112</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.4235604980844</v>
+        <v>293.7030127175929</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.2912066541297</v>
+        <v>265.6724093986799</v>
       </c>
       <c r="AD2" t="n">
-        <v>161830.4495268444</v>
+        <v>214656.8796408112</v>
       </c>
       <c r="AE2" t="n">
-        <v>221423.5604980843</v>
+        <v>293703.0127175929</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.534609565872356e-06</v>
+        <v>4.005919979068556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>200291.2066541297</v>
+        <v>265672.4093986799</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3924680273705</v>
+        <v>210.6922794153557</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.7736096023817</v>
+        <v>288.2784717833097</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.1348651070639</v>
+        <v>260.7655790377718</v>
       </c>
       <c r="AD3" t="n">
-        <v>150392.4680273705</v>
+        <v>210692.2794153557</v>
       </c>
       <c r="AE3" t="n">
-        <v>205773.6096023817</v>
+        <v>288278.4717833097</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.611620281028644e-06</v>
+        <v>4.127634489500759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>186134.8651070639</v>
+        <v>260765.5790377718</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.0125069761793</v>
+        <v>409.0578344438796</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.3822535326765</v>
+        <v>559.6909754441248</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.1162981078214</v>
+        <v>506.2748542789544</v>
       </c>
       <c r="AD2" t="n">
-        <v>316012.5069761793</v>
+        <v>409057.8344438797</v>
       </c>
       <c r="AE2" t="n">
-        <v>432382.2535326765</v>
+        <v>559690.9754441248</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570592604603118e-06</v>
+        <v>2.289745423711946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>391116.2981078214</v>
+        <v>506274.8542789544</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.7929387906482</v>
+        <v>317.5011486641534</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.7777189399054</v>
+        <v>434.4190787643989</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.158933132424</v>
+        <v>392.9587315981303</v>
       </c>
       <c r="AD3" t="n">
-        <v>249792.9387906482</v>
+        <v>317501.1486641534</v>
       </c>
       <c r="AE3" t="n">
-        <v>341777.7189399054</v>
+        <v>434419.0787643989</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.91627899833345e-06</v>
+        <v>2.793716877393616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>309158.933132424</v>
+        <v>392958.7315981303</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.9654639655975</v>
+        <v>297.5883329845308</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.6488931578305</v>
+        <v>407.1734858601122</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.6192444074355</v>
+        <v>368.3134198411989</v>
       </c>
       <c r="AD4" t="n">
-        <v>229965.4639655975</v>
+        <v>297588.3329845308</v>
       </c>
       <c r="AE4" t="n">
-        <v>314648.8931578305</v>
+        <v>407173.4858601122</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040329826597194e-06</v>
+        <v>2.974568879047069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>284619.2444074355</v>
+        <v>368313.4198411989</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.9006005287886</v>
+        <v>281.6087208937423</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.6682382718446</v>
+        <v>385.3094756267643</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.7363923737182</v>
+        <v>348.5360800581906</v>
       </c>
       <c r="AD5" t="n">
-        <v>213900.6005287886</v>
+        <v>281608.7208937423</v>
       </c>
       <c r="AE5" t="n">
-        <v>292668.2382718446</v>
+        <v>385309.4756267643</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.118124819399168e-06</v>
+        <v>3.0879851323988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>264736.3923737182</v>
+        <v>348536.0800581906</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>210.1588055466061</v>
+        <v>269.3928327676704</v>
       </c>
       <c r="AB6" t="n">
-        <v>287.5485493008808</v>
+        <v>368.5951585657241</v>
       </c>
       <c r="AC6" t="n">
-        <v>260.105319332613</v>
+        <v>333.4169539587649</v>
       </c>
       <c r="AD6" t="n">
-        <v>210158.8055466061</v>
+        <v>269392.8327676704</v>
       </c>
       <c r="AE6" t="n">
-        <v>287548.5493008808</v>
+        <v>368595.1585657242</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.150262215687402e-06</v>
+        <v>3.134837801808636e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.4921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>260105.319332613</v>
+        <v>333416.9539587649</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.0861852218684</v>
+        <v>266.3202124429326</v>
       </c>
       <c r="AB7" t="n">
-        <v>283.344454618135</v>
+        <v>364.3910638829763</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.3024575459032</v>
+        <v>329.6140921720545</v>
       </c>
       <c r="AD7" t="n">
-        <v>207086.1852218684</v>
+        <v>266320.2124429327</v>
       </c>
       <c r="AE7" t="n">
-        <v>283344.4546181351</v>
+        <v>364391.0638829762</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.170482692130856e-06</v>
+        <v>3.164316957170744e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>256302.4575459032</v>
+        <v>329614.0921720545</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>203.6225118243282</v>
+        <v>262.8565390453924</v>
       </c>
       <c r="AB8" t="n">
-        <v>278.6053038691372</v>
+        <v>359.651913133976</v>
       </c>
       <c r="AC8" t="n">
-        <v>252.0156046929484</v>
+        <v>325.3272393190989</v>
       </c>
       <c r="AD8" t="n">
-        <v>203622.5118243282</v>
+        <v>262856.5390453924</v>
       </c>
       <c r="AE8" t="n">
-        <v>278605.3038691372</v>
+        <v>359651.913133976</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.191971435144136e-06</v>
+        <v>3.195645100975682e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH8" t="n">
-        <v>252015.6046929484</v>
+        <v>325327.2393190989</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.5523354237827</v>
+        <v>260.7863626448469</v>
       </c>
       <c r="AB9" t="n">
-        <v>275.7727971881752</v>
+        <v>356.8194064530125</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.4534284741684</v>
+        <v>322.7650631003185</v>
       </c>
       <c r="AD9" t="n">
-        <v>201552.3354237827</v>
+        <v>260786.3626448468</v>
       </c>
       <c r="AE9" t="n">
-        <v>275772.7971881752</v>
+        <v>356819.4064530125</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.199293879868037e-06</v>
+        <v>3.206320392739949e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>249453.4284741684</v>
+        <v>322765.0631003185</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>201.8167814362817</v>
+        <v>261.0508086573459</v>
       </c>
       <c r="AB10" t="n">
-        <v>276.1346238890108</v>
+        <v>357.1812331538483</v>
       </c>
       <c r="AC10" t="n">
-        <v>249.7807229425033</v>
+        <v>323.0923575686535</v>
       </c>
       <c r="AD10" t="n">
-        <v>201816.7814362817</v>
+        <v>261050.8086573459</v>
       </c>
       <c r="AE10" t="n">
-        <v>276134.6238890108</v>
+        <v>357181.2331538483</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.199174232078431e-06</v>
+        <v>3.206145959867984e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>249780.7229425033</v>
+        <v>323092.3575686535</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.6317122870355</v>
+        <v>204.5939948083208</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.8374423869384</v>
+        <v>279.9345297466396</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9062899907798</v>
+        <v>253.2179711182827</v>
       </c>
       <c r="AD2" t="n">
-        <v>152631.7122870355</v>
+        <v>204593.9948083208</v>
       </c>
       <c r="AE2" t="n">
-        <v>208837.4423869384</v>
+        <v>279934.5297466396</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645593276670633e-06</v>
+        <v>4.238861872943902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>188906.2899907798</v>
+        <v>253217.9711182827</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.993123067319</v>
+        <v>204.9554055886043</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.3319405608404</v>
+        <v>280.4290279205416</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.3535939529973</v>
+        <v>253.6652750805002</v>
       </c>
       <c r="AD3" t="n">
-        <v>152993.123067319</v>
+        <v>204955.4055886043</v>
       </c>
       <c r="AE3" t="n">
-        <v>209331.9405608404</v>
+        <v>280429.0279205416</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645049157509152e-06</v>
+        <v>4.237990066234882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>189353.5939529973</v>
+        <v>253665.2750805002</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.4711690716025</v>
+        <v>332.5700844693586</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.6516564669677</v>
+        <v>455.0370615276095</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.8996387269768</v>
+        <v>411.6089630239407</v>
       </c>
       <c r="AD2" t="n">
-        <v>258471.1690716025</v>
+        <v>332570.0844693586</v>
       </c>
       <c r="AE2" t="n">
-        <v>353651.6564669677</v>
+        <v>455037.0615276095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819651552266539e-06</v>
+        <v>2.701897228529056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.79947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>319899.6387269768</v>
+        <v>411608.9630239407</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.2087696860367</v>
+        <v>281.9038800612303</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.8263771420262</v>
+        <v>385.713325421225</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.5931229026065</v>
+        <v>348.9013869950747</v>
       </c>
       <c r="AD3" t="n">
-        <v>216208.7696860367</v>
+        <v>281903.8800612303</v>
       </c>
       <c r="AE3" t="n">
-        <v>295826.3771420262</v>
+        <v>385713.325421225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117296013332916e-06</v>
+        <v>3.143852581706732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>267593.1229026065</v>
+        <v>348901.3869950747</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.0839035360293</v>
+        <v>264.8642652572433</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.3953797798235</v>
+        <v>362.3989727116595</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.3983470430336</v>
+        <v>327.8121233862107</v>
       </c>
       <c r="AD4" t="n">
-        <v>199083.9035360293</v>
+        <v>264864.2652572433</v>
       </c>
       <c r="AE4" t="n">
-        <v>272395.3797798235</v>
+        <v>362398.9727116595</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.226735831473252e-06</v>
+        <v>3.306353551167498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>246398.3470430336</v>
+        <v>327812.1233862106</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.804487594871</v>
+        <v>251.35172600266</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.1718499777411</v>
+        <v>343.9105203722171</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.8642207869719</v>
+        <v>311.0881829894423</v>
       </c>
       <c r="AD5" t="n">
-        <v>193804.487594871</v>
+        <v>251351.72600266</v>
       </c>
       <c r="AE5" t="n">
-        <v>265171.8499777411</v>
+        <v>343910.5203722172</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.281070126271728e-06</v>
+        <v>3.387031459169842e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.20572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>239864.2207869719</v>
+        <v>311088.1829894423</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.1933031469688</v>
+        <v>245.8883240136079</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.5484269330528</v>
+        <v>336.435252742515</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.0181910995243</v>
+        <v>304.3263444107125</v>
       </c>
       <c r="AD6" t="n">
-        <v>180193.3031469688</v>
+        <v>245888.3240136079</v>
       </c>
       <c r="AE6" t="n">
-        <v>246548.4269330528</v>
+        <v>336435.2527425151</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.32351257449801e-06</v>
+        <v>3.450051839688156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>223018.1910995243</v>
+        <v>304326.3444107125</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.4532749703535</v>
+        <v>246.1482958369926</v>
       </c>
       <c r="AB7" t="n">
-        <v>246.904131850955</v>
+        <v>336.7909576604172</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.339948039297</v>
+        <v>304.6481013504851</v>
       </c>
       <c r="AD7" t="n">
-        <v>180453.2749703535</v>
+        <v>246148.2958369926</v>
       </c>
       <c r="AE7" t="n">
-        <v>246904.131850955</v>
+        <v>336790.9576604172</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.319532040080539e-06</v>
+        <v>3.444141370237435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.97135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>223339.948039297</v>
+        <v>304648.1013504852</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.4500684853793</v>
+        <v>369.9497888472746</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.9336209868238</v>
+        <v>506.1816221336455</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.5280262821324</v>
+        <v>457.8723585475782</v>
       </c>
       <c r="AD2" t="n">
-        <v>286450.0684853793</v>
+        <v>369949.7888472747</v>
       </c>
       <c r="AE2" t="n">
-        <v>391933.6209868238</v>
+        <v>506181.6221336455</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689609742413881e-06</v>
+        <v>2.484473938417633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.7890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>354528.0262821324</v>
+        <v>457872.3585475782</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.9067960223168</v>
+        <v>295.7748449954932</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.2003769727011</v>
+        <v>404.6921915880674</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.3089725740092</v>
+        <v>366.0689368119597</v>
       </c>
       <c r="AD3" t="n">
-        <v>228906.7960223168</v>
+        <v>295774.8449954932</v>
       </c>
       <c r="AE3" t="n">
-        <v>313200.3769727011</v>
+        <v>404692.1915880674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.010688001478666e-06</v>
+        <v>2.956601049675471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>283308.9725740092</v>
+        <v>366068.9368119597</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.3443807059028</v>
+        <v>277.1270888245073</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.8024614208286</v>
+        <v>379.1775089139842</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.334998436201</v>
+        <v>342.989339642209</v>
       </c>
       <c r="AD4" t="n">
-        <v>210344.3807059028</v>
+        <v>277127.0888245073</v>
       </c>
       <c r="AE4" t="n">
-        <v>287802.4614208286</v>
+        <v>379177.5089139842</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.129398229359437e-06</v>
+        <v>3.13115761145999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.90885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260334.998436201</v>
+        <v>342989.3396422089</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.0586012983454</v>
+        <v>271.8413094169499</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.5702248432827</v>
+        <v>371.9452723364346</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.792996367106</v>
+        <v>336.4473375731129</v>
       </c>
       <c r="AD5" t="n">
-        <v>205058.6012983454</v>
+        <v>271841.3094169499</v>
       </c>
       <c r="AE5" t="n">
-        <v>280570.2248432827</v>
+        <v>371945.2723364346</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.183293160333643e-06</v>
+        <v>3.210407007374891e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>253792.996367106</v>
+        <v>336447.3375731129</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.2521538733102</v>
+        <v>258.676445378819</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.9938314308579</v>
+        <v>353.9325245666528</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.8442447119348</v>
+        <v>320.1537011694288</v>
       </c>
       <c r="AD6" t="n">
-        <v>200252.1538733102</v>
+        <v>258676.445378819</v>
       </c>
       <c r="AE6" t="n">
-        <v>273993.8314308579</v>
+        <v>353932.5245666528</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.227462140399343e-06</v>
+        <v>3.275354951923874e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>247844.2447119348</v>
+        <v>320153.7011694288</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>195.3862968143785</v>
+        <v>253.810588319884</v>
       </c>
       <c r="AB7" t="n">
-        <v>267.3361511363678</v>
+        <v>347.274844271991</v>
       </c>
       <c r="AC7" t="n">
-        <v>241.8219640806357</v>
+        <v>314.1314205380809</v>
       </c>
       <c r="AD7" t="n">
-        <v>195386.2968143785</v>
+        <v>253810.588319884</v>
       </c>
       <c r="AE7" t="n">
-        <v>267336.1511363678</v>
+        <v>347274.8442719909</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.263538349283026e-06</v>
+        <v>3.328402941952844e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.0234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>241821.9640806357</v>
+        <v>314131.4205380809</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.340372832035</v>
+        <v>253.7646643375405</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.2733159177024</v>
+        <v>347.2120090533255</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.7651257670499</v>
+        <v>314.0745822244951</v>
       </c>
       <c r="AD8" t="n">
-        <v>195340.372832035</v>
+        <v>253764.6643375405</v>
       </c>
       <c r="AE8" t="n">
-        <v>267273.3159177024</v>
+        <v>347212.0090533255</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.254933685947931e-06</v>
+        <v>3.315750279466205e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>241765.1257670499</v>
+        <v>314074.5822244951</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.2853585452372</v>
+        <v>441.6019649822866</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.1711487103012</v>
+        <v>604.2192905924826</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.8214811842851</v>
+        <v>546.5534495254358</v>
       </c>
       <c r="AD2" t="n">
-        <v>347285.3585452372</v>
+        <v>441601.9649822866</v>
       </c>
       <c r="AE2" t="n">
-        <v>475171.1487103012</v>
+        <v>604219.2905924825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461824459155059e-06</v>
+        <v>2.114927437076619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>429821.4811842851</v>
+        <v>546553.4495254358</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.8825530113422</v>
+        <v>341.0351690317332</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.0557507067301</v>
+        <v>466.6193636790243</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.5970966042076</v>
+        <v>422.0858665138875</v>
       </c>
       <c r="AD3" t="n">
-        <v>263882.5530113422</v>
+        <v>341035.1690317332</v>
       </c>
       <c r="AE3" t="n">
-        <v>361055.7507067301</v>
+        <v>466619.3636790243</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.815992967366114e-06</v>
+        <v>2.627328697483089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>326597.0966042076</v>
+        <v>422085.8665138875</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.774822439833</v>
+        <v>309.4307841064694</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.4387342975118</v>
+        <v>423.3768499372193</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.9975638664228</v>
+        <v>382.9703575923513</v>
       </c>
       <c r="AD4" t="n">
-        <v>240774.822439833</v>
+        <v>309430.7841064694</v>
       </c>
       <c r="AE4" t="n">
-        <v>329438.7342975117</v>
+        <v>423376.8499372193</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957961530346617e-06</v>
+        <v>2.832724911214081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>297997.5638664227</v>
+        <v>382970.3575923513</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.9776751094952</v>
+        <v>294.0517310763533</v>
       </c>
       <c r="AB5" t="n">
-        <v>320.1385774511717</v>
+        <v>402.3345511054794</v>
       </c>
       <c r="AC5" t="n">
-        <v>289.5850009366423</v>
+        <v>363.9363062280606</v>
       </c>
       <c r="AD5" t="n">
-        <v>233977.6751094952</v>
+        <v>294051.7310763533</v>
       </c>
       <c r="AE5" t="n">
-        <v>320138.5774511717</v>
+        <v>402334.5511054794</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.028192912596667e-06</v>
+        <v>2.934333744158565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>289585.0009366423</v>
+        <v>363936.3062280606</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.5726688913223</v>
+        <v>290.1432897033868</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.1655006732262</v>
+        <v>396.9868491907226</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.2318107845156</v>
+        <v>359.0989814785015</v>
       </c>
       <c r="AD6" t="n">
-        <v>221572.6688913223</v>
+        <v>290143.2897033868</v>
       </c>
       <c r="AE6" t="n">
-        <v>303165.5006732262</v>
+        <v>396986.8491907226</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.06332036777232e-06</v>
+        <v>2.985155180535823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>274231.8107845156</v>
+        <v>359098.9814785015</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>217.5946329566847</v>
+        <v>286.1652537687492</v>
       </c>
       <c r="AB7" t="n">
-        <v>297.7225764088984</v>
+        <v>391.5439249263919</v>
       </c>
       <c r="AC7" t="n">
-        <v>269.3083515727814</v>
+        <v>354.1755222667664</v>
       </c>
       <c r="AD7" t="n">
-        <v>217594.6329566847</v>
+        <v>286165.2537687492</v>
       </c>
       <c r="AE7" t="n">
-        <v>297722.5764088983</v>
+        <v>391543.9249263919</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.095789147506012e-06</v>
+        <v>3.032130118379504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>269308.3515727813</v>
+        <v>354175.5222667664</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>213.9769389396475</v>
+        <v>273.9656540519338</v>
       </c>
       <c r="AB8" t="n">
-        <v>292.7726878533945</v>
+        <v>374.8518943854904</v>
       </c>
       <c r="AC8" t="n">
-        <v>264.8308734338011</v>
+        <v>339.0765556932766</v>
       </c>
       <c r="AD8" t="n">
-        <v>213976.9389396475</v>
+        <v>273965.6540519338</v>
       </c>
       <c r="AE8" t="n">
-        <v>292772.6878533945</v>
+        <v>374851.8943854905</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.119011383445978e-06</v>
+        <v>3.065727410880745e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>264830.8734338011</v>
+        <v>339076.5556932766</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>210.691248690753</v>
+        <v>270.6799638030393</v>
       </c>
       <c r="AB9" t="n">
-        <v>288.277061500436</v>
+        <v>370.3562680325296</v>
       </c>
       <c r="AC9" t="n">
-        <v>260.7643033503162</v>
+        <v>335.009985609791</v>
       </c>
       <c r="AD9" t="n">
-        <v>210691.248690753</v>
+        <v>270679.9638030393</v>
       </c>
       <c r="AE9" t="n">
-        <v>288277.061500436</v>
+        <v>370356.2680325296</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.141457192044486e-06</v>
+        <v>3.098201389650942e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.30989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>260764.3033503162</v>
+        <v>335009.985609791</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>208.0312805413958</v>
+        <v>268.019995653682</v>
       </c>
       <c r="AB10" t="n">
-        <v>284.6375757289746</v>
+        <v>366.7167822610663</v>
       </c>
       <c r="AC10" t="n">
-        <v>257.4721649928316</v>
+        <v>331.7178472523059</v>
       </c>
       <c r="AD10" t="n">
-        <v>208031.2805413958</v>
+        <v>268019.995653682</v>
       </c>
       <c r="AE10" t="n">
-        <v>284637.5757289746</v>
+        <v>366716.7822610663</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.152515399634946e-06</v>
+        <v>3.114200100365818e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.23177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>257472.1649928315</v>
+        <v>331717.8472523059</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.037179138758</v>
+        <v>268.0258942510442</v>
       </c>
       <c r="AB11" t="n">
-        <v>284.6456464501133</v>
+        <v>366.7248529822051</v>
       </c>
       <c r="AC11" t="n">
-        <v>257.4794654556721</v>
+        <v>331.7251477151464</v>
       </c>
       <c r="AD11" t="n">
-        <v>208037.179138758</v>
+        <v>268025.8942510442</v>
       </c>
       <c r="AE11" t="n">
-        <v>284645.6464501133</v>
+        <v>366724.852982205</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.1514095788759e-06</v>
+        <v>3.112600229294331e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>257479.4654556721</v>
+        <v>331725.1477151464</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0361123554285</v>
+        <v>304.8130545996502</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.4820456353556</v>
+        <v>417.0586687061412</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.182004788861</v>
+        <v>377.2551747103442</v>
       </c>
       <c r="AD2" t="n">
-        <v>232036.1123554285</v>
+        <v>304813.0545996501</v>
       </c>
       <c r="AE2" t="n">
-        <v>317482.0456353556</v>
+        <v>417058.6687061412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96154669293072e-06</v>
+        <v>2.945624488484929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287182.004788861</v>
+        <v>377255.1747103442</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.004667131191</v>
+        <v>259.6858001422132</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.8139885675175</v>
+        <v>355.3135682835182</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.3496359744966</v>
+        <v>321.4029400122635</v>
       </c>
       <c r="AD3" t="n">
-        <v>195004.6671311909</v>
+        <v>259685.8001422132</v>
       </c>
       <c r="AE3" t="n">
-        <v>266813.9885675175</v>
+        <v>355313.5682835182</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238942276538404e-06</v>
+        <v>3.362185168389796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.8046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>241349.6359744965</v>
+        <v>321402.9400122635</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.9604784923117</v>
+        <v>243.5458917786828</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.8075747872521</v>
+        <v>333.2302336178754</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.3936588778174</v>
+        <v>301.4272078130548</v>
       </c>
       <c r="AD4" t="n">
-        <v>186960.4784923117</v>
+        <v>243545.8917786828</v>
       </c>
       <c r="AE4" t="n">
-        <v>255807.5747872521</v>
+        <v>333230.2336178754</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.341902923968491e-06</v>
+        <v>3.516799588486621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.15364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>231393.6588778174</v>
+        <v>301427.2078130548</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.8544444195096</v>
+        <v>238.4502365759569</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.8753207714372</v>
+        <v>326.2581333650677</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.1728340171896</v>
+        <v>295.1205150229686</v>
       </c>
       <c r="AD5" t="n">
-        <v>173854.4444195096</v>
+        <v>238450.2365759569</v>
       </c>
       <c r="AE5" t="n">
-        <v>237875.3207714372</v>
+        <v>326258.1333650677</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.384868949397907e-06</v>
+        <v>3.581321007800203e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>215172.8340171896</v>
+        <v>295120.5150229686</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.7549244806989</v>
+        <v>238.3507166371463</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.7391532006466</v>
+        <v>326.1219657942771</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.0496620882429</v>
+        <v>294.997343094022</v>
       </c>
       <c r="AD6" t="n">
-        <v>173754.9244806989</v>
+        <v>238350.7166371463</v>
       </c>
       <c r="AE6" t="n">
-        <v>237739.1532006466</v>
+        <v>326121.9657942771</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.384181696621488e-06</v>
+        <v>3.580288970879902e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>215049.6620882429</v>
+        <v>294997.343094022</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.4254485282243</v>
+        <v>260.2909844648702</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.1262084722747</v>
+        <v>356.1416081726255</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.3457422602746</v>
+        <v>322.1519529365158</v>
       </c>
       <c r="AD2" t="n">
-        <v>197425.4485282243</v>
+        <v>260290.9844648702</v>
       </c>
       <c r="AE2" t="n">
-        <v>270126.2084722747</v>
+        <v>356141.6081726255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210905645050959e-06</v>
+        <v>3.390969345181165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244345.7422602746</v>
+        <v>322151.9529365158</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.7881554745439</v>
+        <v>229.7102480730857</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.1528654293591</v>
+        <v>314.2996955143654</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.328451606005</v>
+        <v>284.3033736969608</v>
       </c>
       <c r="AD3" t="n">
-        <v>174788.1554745439</v>
+        <v>229710.2480730857</v>
       </c>
       <c r="AE3" t="n">
-        <v>239152.8654293591</v>
+        <v>314299.6955143654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44603559960288e-06</v>
+        <v>3.751599148539882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216328.451606005</v>
+        <v>284303.3736969607</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.694412285941</v>
+        <v>217.7017562305033</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.6056724604266</v>
+        <v>297.8691471980822</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.360499509891</v>
+        <v>269.440933851559</v>
       </c>
       <c r="AD4" t="n">
-        <v>162694.412285941</v>
+        <v>217701.7562305033</v>
       </c>
       <c r="AE4" t="n">
-        <v>222605.6724604266</v>
+        <v>297869.1471980822</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.496466043170511e-06</v>
+        <v>3.828946677406399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>201360.499509891</v>
+        <v>269440.9338515589</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.5039476680586</v>
+        <v>232.7646875342174</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.6592674195053</v>
+        <v>318.4789143374424</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.2637162834058</v>
+        <v>288.083733741135</v>
       </c>
       <c r="AD2" t="n">
-        <v>171503.9476680586</v>
+        <v>232764.6875342174</v>
       </c>
       <c r="AE2" t="n">
-        <v>234659.2674195053</v>
+        <v>318478.9143374424</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415442930970905e-06</v>
+        <v>3.77408193414726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>212263.7162834058</v>
+        <v>288083.733741135</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.8625121072647</v>
+        <v>216.0379111188519</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.8897211169167</v>
+        <v>295.5926009126562</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.6672635226701</v>
+        <v>267.3816579484604</v>
       </c>
       <c r="AD3" t="n">
-        <v>154862.5121072647</v>
+        <v>216037.9111188519</v>
       </c>
       <c r="AE3" t="n">
-        <v>211889.7211169167</v>
+        <v>295592.6009126562</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.570493165329374e-06</v>
+        <v>4.016344866909816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>191667.2635226701</v>
+        <v>267381.6579484604</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7842596410473</v>
+        <v>197.7413014091789</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8366997052972</v>
+        <v>270.5583723184422</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.6691269615591</v>
+        <v>244.7366609955098</v>
       </c>
       <c r="AD2" t="n">
-        <v>146784.2596410473</v>
+        <v>197741.3014091789</v>
       </c>
       <c r="AE2" t="n">
-        <v>200836.6997052972</v>
+        <v>270558.3723184422</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659244323500965e-06</v>
+        <v>4.333707006079543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>181669.1269615591</v>
+        <v>244736.6609955098</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.5483208363141</v>
+        <v>351.1378302432843</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.3856130190968</v>
+        <v>480.4422704466253</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.2730211800967</v>
+        <v>434.5895344601603</v>
       </c>
       <c r="AD2" t="n">
-        <v>276548.3208363141</v>
+        <v>351137.8302432843</v>
       </c>
       <c r="AE2" t="n">
-        <v>378385.6130190968</v>
+        <v>480442.2704466254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.752760923967937e-06</v>
+        <v>2.589495344418525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>342273.0211800967</v>
+        <v>434589.5344601603</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.8776261205021</v>
+        <v>289.2551912342744</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.9510007248388</v>
+        <v>395.7717136851436</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.8469052171681</v>
+        <v>357.9998168001216</v>
       </c>
       <c r="AD3" t="n">
-        <v>222877.6261205021</v>
+        <v>289255.1912342744</v>
       </c>
       <c r="AE3" t="n">
-        <v>304951.0007248388</v>
+        <v>395771.7136851436</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.057693809764227e-06</v>
+        <v>3.039997336636628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>275846.905217168</v>
+        <v>357999.8168001216</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.8053621320543</v>
+        <v>271.0975863912547</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.2237318438398</v>
+        <v>370.9276776819342</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.4795721732238</v>
+        <v>335.5268607242349</v>
       </c>
       <c r="AD4" t="n">
-        <v>204805.3621320543</v>
+        <v>271097.5863912547</v>
       </c>
       <c r="AE4" t="n">
-        <v>280223.7318438398</v>
+        <v>370927.6776819342</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.177342915607111e-06</v>
+        <v>3.21676462891662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>253479.5721732238</v>
+        <v>335526.8607242349</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.5615127755678</v>
+        <v>257.5566309040948</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.0488658119924</v>
+        <v>352.4003449994407</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.9894652854659</v>
+        <v>318.7677506697899</v>
       </c>
       <c r="AD5" t="n">
-        <v>199561.5127755679</v>
+        <v>257556.6309040948</v>
       </c>
       <c r="AE5" t="n">
-        <v>273048.8658119924</v>
+        <v>352400.3449994407</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.232637543533679e-06</v>
+        <v>3.298455850822148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.36197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>246989.4652854659</v>
+        <v>318767.7506697899</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.4792643886899</v>
+        <v>252.4743825172168</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.0951093560947</v>
+        <v>345.446588543543</v>
       </c>
       <c r="AC6" t="n">
-        <v>240.6993655860585</v>
+        <v>312.4776509703824</v>
       </c>
       <c r="AD6" t="n">
-        <v>194479.2643886899</v>
+        <v>252474.3825172168</v>
       </c>
       <c r="AE6" t="n">
-        <v>266095.1093560947</v>
+        <v>345446.588543543</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.275524116039503e-06</v>
+        <v>3.361815649824565e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>240699.3655860585</v>
+        <v>312477.6509703824</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.8501120444363</v>
+        <v>249.0569954490617</v>
       </c>
       <c r="AB7" t="n">
-        <v>250.1835900767023</v>
+        <v>340.7707687924185</v>
       </c>
       <c r="AC7" t="n">
-        <v>226.3064193747286</v>
+        <v>308.2480848937494</v>
       </c>
       <c r="AD7" t="n">
-        <v>182850.1120444363</v>
+        <v>249056.9954490617</v>
       </c>
       <c r="AE7" t="n">
-        <v>250183.5900767023</v>
+        <v>340770.7687924185</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.296745829874188e-06</v>
+        <v>3.393168202488217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>226306.4193747286</v>
+        <v>308248.0848937494</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.1987307149125</v>
+        <v>249.4056141195379</v>
       </c>
       <c r="AB8" t="n">
-        <v>250.6605855216178</v>
+        <v>341.247764237334</v>
       </c>
       <c r="AC8" t="n">
-        <v>226.7378910438488</v>
+        <v>308.6795565628698</v>
       </c>
       <c r="AD8" t="n">
-        <v>183198.7307149125</v>
+        <v>249405.6141195379</v>
       </c>
       <c r="AE8" t="n">
-        <v>250660.5855216178</v>
+        <v>341247.764237334</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.29679506818935e-06</v>
+        <v>3.393240946229896e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>226737.8910438488</v>
+        <v>308679.5565628698</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.6016511770084</v>
+        <v>420.8062282380542</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.1849848402999</v>
+        <v>575.7656461358686</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.3610143573148</v>
+        <v>520.8153809608202</v>
       </c>
       <c r="AD2" t="n">
-        <v>335601.6511770084</v>
+        <v>420806.2282380543</v>
       </c>
       <c r="AE2" t="n">
-        <v>459184.9848402999</v>
+        <v>575765.6461358686</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515618921125376e-06</v>
+        <v>2.200934836759044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>415361.0143573148</v>
+        <v>520815.3809608202</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.7410554419859</v>
+        <v>333.4165601537773</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.2844386715337</v>
+        <v>456.1952469029028</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.7583448756337</v>
+        <v>412.6566128125393</v>
       </c>
       <c r="AD3" t="n">
-        <v>256741.0554419859</v>
+        <v>333416.5601537772</v>
       </c>
       <c r="AE3" t="n">
-        <v>351284.4386715337</v>
+        <v>456195.2469029028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865568749030088e-06</v>
+        <v>2.709121133866902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>317758.3448756337</v>
+        <v>412656.6128125393</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.5239583694432</v>
+        <v>303.585228894507</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.2542704246345</v>
+        <v>415.3787034085174</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.498775142112</v>
+        <v>375.7355429428794</v>
       </c>
       <c r="AD4" t="n">
-        <v>235523.9583694432</v>
+        <v>303585.228894507</v>
       </c>
       <c r="AE4" t="n">
-        <v>322254.2704246345</v>
+        <v>415378.7034085174</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.99771033546011e-06</v>
+        <v>2.901013051356617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>291498.775142112</v>
+        <v>375735.5429428794</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.1121785007429</v>
+        <v>287.258700371827</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.798949171662</v>
+        <v>393.0400268081827</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.186558233275</v>
+        <v>355.5288382847511</v>
       </c>
       <c r="AD5" t="n">
-        <v>219112.1785007429</v>
+        <v>287258.7003718271</v>
       </c>
       <c r="AE5" t="n">
-        <v>299798.949171662</v>
+        <v>393040.0268081827</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.076734325477776e-06</v>
+        <v>3.015769241151633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>271186.558233275</v>
+        <v>355528.8382847512</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.9615613901967</v>
+        <v>284.1080832612809</v>
       </c>
       <c r="AB6" t="n">
-        <v>295.4881358455977</v>
+        <v>388.7292134821162</v>
       </c>
       <c r="AC6" t="n">
-        <v>267.2871628807844</v>
+        <v>351.62944293226</v>
       </c>
       <c r="AD6" t="n">
-        <v>215961.5613901967</v>
+        <v>284108.0832612808</v>
       </c>
       <c r="AE6" t="n">
-        <v>295488.1358455977</v>
+        <v>388729.2134821162</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.106294184847939e-06</v>
+        <v>3.058695153035327e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>267287.1628807844</v>
+        <v>351629.44293226</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.8862835332318</v>
+        <v>271.5039120721603</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.912160893131</v>
+        <v>371.4836304043732</v>
       </c>
       <c r="AC7" t="n">
-        <v>262.2433511518493</v>
+        <v>336.0297540991289</v>
       </c>
       <c r="AD7" t="n">
-        <v>211886.2835332318</v>
+        <v>271503.9120721603</v>
       </c>
       <c r="AE7" t="n">
-        <v>289912.160893131</v>
+        <v>371483.6304043732</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.139365167160946e-06</v>
+        <v>3.106719808866685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>262243.3511518493</v>
+        <v>336029.7540991289</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>208.1681023781084</v>
+        <v>267.7857309170368</v>
       </c>
       <c r="AB8" t="n">
-        <v>284.824781402118</v>
+        <v>366.3962509133576</v>
       </c>
       <c r="AC8" t="n">
-        <v>257.641504019275</v>
+        <v>331.4279069665539</v>
       </c>
       <c r="AD8" t="n">
-        <v>208168.1023781084</v>
+        <v>267785.7309170368</v>
       </c>
       <c r="AE8" t="n">
-        <v>284824.781402118</v>
+        <v>366396.2509133576</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.163492275491167e-06</v>
+        <v>3.141756448020553e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>257641.504019275</v>
+        <v>331427.9069665539</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>206.0572862705029</v>
+        <v>265.6749148094313</v>
       </c>
       <c r="AB9" t="n">
-        <v>281.9366696810593</v>
+        <v>363.5081391922973</v>
       </c>
       <c r="AC9" t="n">
-        <v>255.029029627383</v>
+        <v>328.8154325746614</v>
       </c>
       <c r="AD9" t="n">
-        <v>206057.2862705029</v>
+        <v>265674.9148094313</v>
       </c>
       <c r="AE9" t="n">
-        <v>281936.6696810593</v>
+        <v>363508.1391922974</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.17046707376952e-06</v>
+        <v>3.151885033970638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.23177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>255029.029627383</v>
+        <v>328815.4325746614</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>204.4254391916901</v>
+        <v>264.0430677306185</v>
       </c>
       <c r="AB10" t="n">
-        <v>279.7039045158165</v>
+        <v>361.2753740270535</v>
       </c>
       <c r="AC10" t="n">
-        <v>253.0093564358047</v>
+        <v>326.7957593830827</v>
       </c>
       <c r="AD10" t="n">
-        <v>204425.4391916901</v>
+        <v>264043.0677306185</v>
       </c>
       <c r="AE10" t="n">
-        <v>279703.9045158165</v>
+        <v>361275.3740270535</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.180763204561374e-06</v>
+        <v>3.16683675608743e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>253009.3564358047</v>
+        <v>326795.7593830827</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7610496114553</v>
+        <v>203.5157691729512</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8049427188553</v>
+        <v>278.4592538643699</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.640400817332</v>
+        <v>251.8834934956535</v>
       </c>
       <c r="AD2" t="n">
-        <v>146761.0496114553</v>
+        <v>203515.7691729512</v>
       </c>
       <c r="AE2" t="n">
-        <v>200804.9427188553</v>
+        <v>278459.2538643699</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613001619353239e-06</v>
+        <v>4.35571801932915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>181640.400817332</v>
+        <v>251883.4934956535</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.3948939768578</v>
+        <v>277.8499704373668</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.3445523741802</v>
+        <v>380.1665874279845</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.34816000734</v>
+        <v>343.8840218910135</v>
       </c>
       <c r="AD2" t="n">
-        <v>214394.8939768578</v>
+        <v>277849.9704373668</v>
       </c>
       <c r="AE2" t="n">
-        <v>293344.5523741802</v>
+        <v>380166.5874279845</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119160382431958e-06</v>
+        <v>3.225164218513789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>265348.16000734</v>
+        <v>343884.0218910135</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.8553272858252</v>
+        <v>237.367862770515</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.8224816831651</v>
+        <v>324.7771817735005</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.0752132559425</v>
+        <v>293.7809033727717</v>
       </c>
       <c r="AD3" t="n">
-        <v>181855.3272858252</v>
+        <v>237367.862770515</v>
       </c>
       <c r="AE3" t="n">
-        <v>248822.4816831651</v>
+        <v>324777.1817735005</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.372627714104593e-06</v>
+        <v>3.610917828976539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>225075.2132559425</v>
+        <v>293780.9033727717</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.8763228809447</v>
+        <v>230.2459689783276</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.3275470293824</v>
+        <v>315.0326924912554</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.5362864006888</v>
+        <v>284.9664144711442</v>
       </c>
       <c r="AD4" t="n">
-        <v>166876.3228809447</v>
+        <v>230245.9689783276</v>
       </c>
       <c r="AE4" t="n">
-        <v>228327.5470293824</v>
+        <v>315032.6924912554</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451272871133212e-06</v>
+        <v>3.730608414224748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>206536.2864006888</v>
+        <v>284966.4144711442</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.7363972512762</v>
+        <v>222.3341840819866</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.1360946097869</v>
+        <v>304.2074393527716</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.3631059313144</v>
+        <v>275.1743082988557</v>
       </c>
       <c r="AD5" t="n">
-        <v>166736.3972512762</v>
+        <v>222334.1840819866</v>
       </c>
       <c r="AE5" t="n">
-        <v>228136.0946097869</v>
+        <v>304207.4393527716</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.461802438668938e-06</v>
+        <v>3.746633432781236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.81510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206363.1059313143</v>
+        <v>275174.3082988557</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.3194469083981</v>
+        <v>322.6448450850897</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.1298664576236</v>
+        <v>441.4569111313946</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.5729107817842</v>
+        <v>399.3248831216796</v>
       </c>
       <c r="AD2" t="n">
-        <v>249319.4469083981</v>
+        <v>322644.8450850897</v>
       </c>
       <c r="AE2" t="n">
-        <v>341129.8664576235</v>
+        <v>441456.9111313946</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.888357247548687e-06</v>
+        <v>2.819148728998161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>308572.9107817842</v>
+        <v>399324.8831216797</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.6888579253005</v>
+        <v>266.8524955050725</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.9055462327851</v>
+        <v>365.1193570512673</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.5236835748757</v>
+        <v>330.2728780625297</v>
       </c>
       <c r="AD3" t="n">
-        <v>209688.8579253005</v>
+        <v>266852.4955050725</v>
       </c>
       <c r="AE3" t="n">
-        <v>286905.5462327851</v>
+        <v>365119.3570512673</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176464612385101e-06</v>
+        <v>3.249267294988755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259523.6835748757</v>
+        <v>330272.8780625297</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.4434190079214</v>
+        <v>249.5217157331183</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.3095758909693</v>
+        <v>341.4066195870764</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.1796795253229</v>
+        <v>308.8232509809876</v>
       </c>
       <c r="AD4" t="n">
-        <v>192443.4190079214</v>
+        <v>249521.7157331183</v>
       </c>
       <c r="AE4" t="n">
-        <v>263309.5758909693</v>
+        <v>341406.6195870764</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.29313639777856e-06</v>
+        <v>3.423447851093214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>238179.6795253229</v>
+        <v>308823.2509809876</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.8819344844376</v>
+        <v>244.9602312096346</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.0683515274475</v>
+        <v>335.1653952235546</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.5341088554403</v>
+        <v>303.177680311105</v>
       </c>
       <c r="AD5" t="n">
-        <v>187881.9344844376</v>
+        <v>244960.2312096346</v>
       </c>
       <c r="AE5" t="n">
-        <v>257068.3515274475</v>
+        <v>335165.3952235546</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331976681661161e-06</v>
+        <v>3.481432926260374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.04947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>232534.1088554403</v>
+        <v>303177.680311105</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.9699616906174</v>
+        <v>242.1290492057228</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.1381089486863</v>
+        <v>331.2916471028697</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.0287876736641</v>
+        <v>299.6736372742173</v>
       </c>
       <c r="AD6" t="n">
-        <v>176969.9616906174</v>
+        <v>242129.0492057228</v>
       </c>
       <c r="AE6" t="n">
-        <v>242138.1089486863</v>
+        <v>331291.6471028697</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349962953018712e-06</v>
+        <v>3.508284823115632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>219028.7876736641</v>
+        <v>299673.6372742173</v>
       </c>
     </row>
   </sheetData>
